--- a/flows/NLR_fund_flow_data.xlsx
+++ b/flows/NLR_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4164"/>
+  <dimension ref="A1:B4176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42075,6 +42075,126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4165">
+      <c r="A4165" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B4165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4166">
+      <c r="A4166" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B4166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4167">
+      <c r="A4167" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B4167" t="n">
+        <v>-3.56347</v>
+      </c>
+    </row>
+    <row r="4168">
+      <c r="A4168" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B4168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4169">
+      <c r="A4169" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B4169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4170">
+      <c r="A4170" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4171">
+      <c r="A4171" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4172">
+      <c r="A4172" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4172" t="n">
+        <v>-9.318737</v>
+      </c>
+    </row>
+    <row r="4173">
+      <c r="A4173" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4174">
+      <c r="A4174" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4175">
+      <c r="A4175" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4175" t="n">
+        <v>-7.51747</v>
+      </c>
+    </row>
+    <row r="4176">
+      <c r="A4176" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4176" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
